--- a/Calculate Hash Map/Data/Config.xlsx
+++ b/Calculate Hash Map/Data/Config.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Calculate Hash Map/Data/Config.xlsx
+++ b/Calculate Hash Map/Data/Config.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Calculate Hash Map/Data/Config.xlsx
+++ b/Calculate Hash Map/Data/Config.xlsx
@@ -170,9 +170,6 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/account/login</t>
-  </si>
-  <si>
     <t>acme_URL</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>system1_Credential</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,26 +590,26 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
